--- a/etc/item.xlsx
+++ b/etc/item.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Documents\GitHub\murasakisan\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4A9889-C593-4558-A3D7-53F73FA02F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="675" windowWidth="17115" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="675" windowWidth="17115" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>str</t>
     <phoneticPr fontId="1"/>
@@ -88,14 +87,70 @@
   </si>
   <si>
     <t>ScoreBoard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>violin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sushi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pancake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ribbon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flowerpot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>knit hat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asnya</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>statue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>piano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rug-pull</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>window</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +165,61 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,8 +234,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -412,146 +528,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="4" width="14" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="4.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="s">
+    <row r="1" spans="2:7">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="2:7">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="9">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="9">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="2:7">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9">
+        <f>D2+1</f>
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9">
+        <f>F2+1</f>
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D17" si="0">D3+1</f>
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F17" si="1">F3+1</f>
+        <v>35</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="8">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="8">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="8">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="8">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="8">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="8">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="8">
         <v>16</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/etc/item.xlsx
+++ b/etc/item.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Documents\GitHub\murasakisan\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB22288-6151-4140-A437-00C47406B769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="675" windowWidth="17115" windowHeight="11505"/>
+    <workbookView xWindow="2610" yWindow="675" windowWidth="17115" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -106,50 +117,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ribbon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flowerpot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>knit hat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asnya</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>statue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>piano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rug-pull</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>window</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>?</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ribbon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>flowerpot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>knit hat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>asnya</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>statue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>piano</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rug-pull</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>window</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>?</t>
+    <t>ランタン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -528,10 +539,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -653,7 +666,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
@@ -675,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
@@ -690,21 +703,21 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -712,14 +725,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="1"/>
@@ -734,21 +747,21 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:7">

--- a/etc/item.xlsx
+++ b/etc/item.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Documents\GitHub\murasakisan\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB22288-6151-4140-A437-00C47406B769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="675" windowWidth="17115" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="675" windowWidth="17115" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -149,18 +148,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ランタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uni</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -539,12 +538,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:G17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -592,8 +589,8 @@
       <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="9">
         <f>D2+1</f>
@@ -606,23 +603,23 @@
         <f>F2+1</f>
         <v>34</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D17" si="0">D3+1</f>
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F17" si="1">F3+1</f>
@@ -643,15 +640,15 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -666,7 +663,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
@@ -761,7 +758,7 @@
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:7">

--- a/etc/item.xlsx
+++ b/etc/item.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="675" windowWidth="17115" windowHeight="11505"/>
+    <workbookView xWindow="2610" yWindow="675" windowWidth="17115" windowHeight="11505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>str</t>
     <phoneticPr fontId="1"/>
@@ -153,6 +154,10 @@
   </si>
   <si>
     <t>uni</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heart</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -539,315 +544,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="4.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="3.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="3.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="8">
+    <row r="2" spans="2:8">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9">
+      <c r="E2" s="9">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9">
+      <c r="G2" s="9">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="8">
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9">
-        <f>D2+1</f>
+      <c r="E3" s="9">
+        <f>E2+1</f>
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9">
-        <f>F2+1</f>
+      <c r="G3" s="9">
+        <f>G2+1</f>
         <v>34</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="8">
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D17" si="0">D3+1</f>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4:E17" si="0">E3+1</f>
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9">
-        <f t="shared" ref="F4:F17" si="1">F3+1</f>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G17" si="1">G3+1</f>
         <v>35</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="8">
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="9">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="8">
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="8">
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="8">
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="8">
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="8">
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="9">
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G10" s="9">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="8">
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="9">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="8">
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
         <v>11</v>
       </c>
-      <c r="D12" s="9">
+      <c r="E12" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="8">
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8">
         <v>12</v>
       </c>
-      <c r="D13" s="9">
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F13" s="9">
+      <c r="G13" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="8">
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8">
         <v>13</v>
       </c>
-      <c r="D14" s="9">
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F14" s="9">
+      <c r="G14" s="9">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="8">
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8">
         <v>14</v>
       </c>
-      <c r="D15" s="9">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F15" s="9">
+      <c r="G15" s="9">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="8">
+    <row r="16" spans="2:8">
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8">
         <v>15</v>
       </c>
-      <c r="D16" s="9">
+      <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F16" s="9">
+      <c r="G16" s="9">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="8">
+    <row r="17" spans="2:7">
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8">
         <v>16</v>
       </c>
-      <c r="D17" s="9">
+      <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F17" s="9">
+      <c r="G17" s="9">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -857,4 +916,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>